--- a/backend/data/climatologias_TEMPS.xlsx
+++ b/backend/data/climatologias_TEMPS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tmed" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tmean" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Tmax" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Tmin" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
@@ -191,7 +191,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -957,7 +957,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/backend/data/climatologias_TEMPS.xlsx
+++ b/backend/data/climatologias_TEMPS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tmean" sheetId="1" state="visible" r:id="rId2"/>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Nov</t>
   </si>
   <si>
-    <t xml:space="preserve">Dez</t>
+    <t xml:space="preserve">Dec</t>
   </si>
 </sst>
 </file>
@@ -191,8 +191,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -957,8 +957,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
